--- a/gagahi/pc数据.xlsx
+++ b/gagahi/pc数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31600" windowHeight="17460" activeTab="1"/>
+    <workbookView windowWidth="31600" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="账号密码" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>账号</t>
   </si>
@@ -33,10 +33,16 @@
     <t>17600102311</t>
   </si>
   <si>
+    <t>123457</t>
+  </si>
+  <si>
     <t>17600102312</t>
   </si>
   <si>
-    <t>聊天内容</t>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>什么玩意儿</t>
   </si>
   <si>
     <t>早上好</t>
@@ -55,8 +61,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +73,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -74,8 +111,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,107 +142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +158,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +226,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,25 +310,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,49 +346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,85 +364,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,8 +423,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +449,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,15 +485,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -467,32 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,148 +522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,8 +998,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1024,15 +1030,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1058,22 +1064,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
